--- a/data/trans_bre/POLIPATOLOGIA_5-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.793384382883916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.657494016577243</v>
+        <v>7.657494016577237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5074072381919142</v>
@@ -649,7 +649,7 @@
         <v>1.600692074954071</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.762213212010882</v>
+        <v>0.7622132120108812</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5680939039012238</v>
+        <v>-0.4693828983567482</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.134471202799848</v>
+        <v>3.250793001866843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.986038272957592</v>
+        <v>4.048745796431884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.616872933156099</v>
+        <v>4.621850256485647</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2149298629892357</v>
+        <v>-0.1633377733262408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5881741123194241</v>
+        <v>0.6016884790614416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7301749295551473</v>
+        <v>0.7343950271085388</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3703728583543143</v>
+        <v>0.3808525621254824</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.094663950372909</v>
+        <v>3.032522896198321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.526101480325293</v>
+        <v>8.488377084543028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.64895443477424</v>
+        <v>9.61274780274694</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.1993566328324</v>
+        <v>10.15848985725694</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.665380629398865</v>
+        <v>1.73569028458279</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.029670475921866</v>
+        <v>2.797086705762084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.943873711060164</v>
+        <v>2.909170140005426</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.18288922138981</v>
+        <v>1.18047679271981</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2094920478801247</v>
+        <v>0.2019696483536099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.196797687358626</v>
+        <v>3.363467392665916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.800468217673212</v>
+        <v>3.634263900463928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.92607949834338</v>
+        <v>5.180713034563478</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02346945287450401</v>
+        <v>0.03684737924893787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6852701157202534</v>
+        <v>0.7439774226287625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9049404607011106</v>
+        <v>0.9304550119917471</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5211228168628904</v>
+        <v>0.5437352588766972</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.305235976080302</v>
+        <v>4.227060542747177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.555242882110244</v>
+        <v>7.567803692466435</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.20444121618222</v>
+        <v>8.060936144053533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.55045454080431</v>
+        <v>9.80975041280305</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.47582032015066</v>
+        <v>1.531286441193306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.745574640591373</v>
+        <v>2.845799663593183</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.323227974014754</v>
+        <v>3.436096729591958</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.394743112129484</v>
+        <v>1.415692828870793</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.145434466553459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.299753817398165</v>
+        <v>7.299753817398162</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.926874628247529</v>
@@ -849,7 +849,7 @@
         <v>1.562841812562496</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.989531353612909</v>
+        <v>0.9895313536129087</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.064301709231062</v>
+        <v>3.835985063290242</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.821161614173699</v>
+        <v>2.948200013107508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.730354638060924</v>
+        <v>2.785603054359576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.403480089550023</v>
+        <v>4.505861715517299</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8266181605674664</v>
+        <v>0.8059804787391789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5344799625624241</v>
+        <v>0.5798192371485339</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5772116170014856</v>
+        <v>0.6502540026075411</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4820641089491517</v>
+        <v>0.5248251853378256</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.367032272407769</v>
+        <v>9.423846758303807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.124673661631576</v>
+        <v>7.914941753611693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.626435393546187</v>
+        <v>7.50541182134106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.958964179536881</v>
+        <v>10.23085743018553</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.669570187937522</v>
+        <v>4.004979084335941</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.819725089759886</v>
+        <v>2.912334953537826</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.206042355682066</v>
+        <v>2.921108238452038</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.641313177728198</v>
+        <v>1.700698174117727</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.298219654777022</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.309413972477094</v>
+        <v>9.309413972477088</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8940538354812269</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.485482644396329</v>
+        <v>1.407663945421998</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.113911674334346</v>
+        <v>4.993499173471278</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.887786464874981</v>
+        <v>5.145030446386153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.996399993277364</v>
+        <v>6.860899004094924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2971469696899455</v>
+        <v>0.3023963802440726</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.007768646840801</v>
+        <v>1.010101154641739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9827625663249421</v>
+        <v>1.13770750558759</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7163071355166382</v>
+        <v>0.7265109562495212</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.340287921672368</v>
+        <v>5.33833202385599</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.966916441109779</v>
+        <v>10.09262146811583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.654212681192043</v>
+        <v>9.565989488054296</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.97052458397262</v>
+        <v>11.86996917679274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.723103986427968</v>
+        <v>1.840727128256791</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.439148933396636</v>
+        <v>3.540831291289017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.469483581842439</v>
+        <v>3.41411182625979</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.65678151376384</v>
+        <v>1.67778609962329</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.275004588448127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.991848614998409</v>
+        <v>7.991848614998408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9641593221157291</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.226045848534534</v>
+        <v>2.229812890146393</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.967786322988085</v>
+        <v>4.9340804745834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.083972917731493</v>
+        <v>5.136482302466725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.69440996245613</v>
+        <v>6.682365383120424</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5718901328684384</v>
+        <v>0.5605937206772432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.135502440991153</v>
+        <v>1.144483645483919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.271127702688052</v>
+        <v>1.287140664238448</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7375879176148</v>
+        <v>0.7416305367502581</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.375695507797387</v>
+        <v>4.375020767160207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.310898388948668</v>
+        <v>7.411583699398007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.496051168888139</v>
+        <v>7.609044284354104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.290753102411422</v>
+        <v>9.271211430852906</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.491217087283548</v>
+        <v>1.473321049961859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.195769156551957</v>
+        <v>2.242582598237616</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.511875072759768</v>
+        <v>2.48907258703871</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.199072505519556</v>
+        <v>1.198796255597829</v>
       </c>
     </row>
     <row r="19">
